--- a/programs/frameworks/neural/data/lr.xlsx
+++ b/programs/frameworks/neural/data/lr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC311FF-4464-4FA2-B2D8-9C870A4A236B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302864F1-C058-4F06-B41D-34405E4D68D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1212" windowWidth="20616" windowHeight="14472" xr2:uid="{FB11F44C-8569-4840-B176-A127A7EB8F39}"/>
+    <workbookView xWindow="9564" yWindow="1596" windowWidth="20616" windowHeight="14472" xr2:uid="{FB11F44C-8569-4840-B176-A127A7EB8F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,13 +131,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -154,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -163,13 +175,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,8 +1201,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
@@ -1521,7 +1538,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,8 +1546,8 @@
     <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -1539,7 +1556,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -1549,10 +1566,10 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
@@ -1560,40 +1577,40 @@
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="15">
         <v>17</v>
       </c>
       <c r="B2" s="7">
         <v>94</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <f>A2-$K$2</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
+        <f>POWER(C2, 2)</f>
+        <v>1.9600000000000011</v>
+      </c>
+      <c r="E2" s="12">
         <f>B2-$K$3</f>
         <v>14.299999999999997</v>
       </c>
-      <c r="E2" s="13">
-        <f>POWER(C2, 2)</f>
-        <v>1.9600000000000011</v>
-      </c>
-      <c r="F2" s="13">
-        <f>POWER(D2, 2)</f>
+      <c r="F2" s="12">
+        <f>POWER(E2, 2)</f>
         <v>204.48999999999992</v>
       </c>
       <c r="G2" s="1">
-        <f>C2*D2</f>
+        <f>C2*E2</f>
         <v>20.02</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="18">
         <f>$K$12+$K$11*A2</f>
         <v>84.15094339622641</v>
       </c>
@@ -1607,33 +1624,33 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="15">
         <v>13</v>
       </c>
       <c r="B3" s="7">
         <v>73</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="10">
         <f>A3-$K$2</f>
         <v>-2.5999999999999996</v>
       </c>
-      <c r="D3" s="1">
-        <f>B3-$K$3</f>
+      <c r="D3" s="10">
+        <f>POWER(C3, 2)</f>
+        <v>6.759999999999998</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E11" si="0">B3-$K$3</f>
         <v>-6.7000000000000028</v>
       </c>
-      <c r="E3" s="13">
-        <f t="shared" ref="E3:E11" si="0">POWER(C3, 2)</f>
-        <v>6.759999999999998</v>
-      </c>
-      <c r="F3" s="13">
-        <f t="shared" ref="F3:F11" si="1">POWER(D3, 2)</f>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F11" si="1">POWER(E3, 2)</f>
         <v>44.890000000000036</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="2">C3*D3</f>
+        <f t="shared" ref="G3:G11" si="2">C3*E3</f>
         <v>17.420000000000005</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="18">
         <f t="shared" ref="H3:H11" si="3">$K$12+$K$11*A3</f>
         <v>71.433962264150949</v>
       </c>
@@ -1647,25 +1664,25 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="15">
         <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>59</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <f>A4-$K$2</f>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="D4" s="1">
-        <f>B4-$K$3</f>
+      <c r="D4" s="10">
+        <f>POWER(C4, 2)</f>
+        <v>12.959999999999997</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="0"/>
         <v>-20.700000000000003</v>
       </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>12.959999999999997</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f t="shared" si="1"/>
         <v>428.49000000000012</v>
       </c>
@@ -1673,7 +1690,7 @@
         <f t="shared" si="2"/>
         <v>74.52</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="18">
         <f t="shared" si="3"/>
         <v>68.254716981132077</v>
       </c>
@@ -1682,30 +1699,30 @@
         <v>10</v>
       </c>
       <c r="K4" s="5">
-        <f>SUM(E2:E11)</f>
+        <f>SUM(D2:D11)</f>
         <v>42.4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="15">
         <v>15</v>
       </c>
       <c r="B5" s="7">
         <v>80</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <f>A5-$K$2</f>
         <v>-0.59999999999999964</v>
       </c>
-      <c r="D5" s="1">
-        <f>B5-$K$3</f>
+      <c r="D5" s="10">
+        <f>POWER(C5, 2)</f>
+        <v>0.3599999999999996</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
         <v>0.29999999999999716</v>
       </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.3599999999999996</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <f t="shared" si="1"/>
         <v>8.999999999999829E-2</v>
       </c>
@@ -1713,7 +1730,7 @@
         <f t="shared" si="2"/>
         <v>-0.17999999999999819</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="18">
         <f t="shared" si="3"/>
         <v>77.792452830188694</v>
       </c>
@@ -1727,25 +1744,25 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="15">
         <v>16</v>
       </c>
       <c r="B6" s="7">
         <v>93</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <f>A6-$K$2</f>
         <v>0.40000000000000036</v>
       </c>
-      <c r="D6" s="1">
-        <f>B6-$K$3</f>
+      <c r="D6" s="10">
+        <f>POWER(C6, 2)</f>
+        <v>0.16000000000000028</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>13.299999999999997</v>
       </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000028</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f t="shared" si="1"/>
         <v>176.88999999999993</v>
       </c>
@@ -1753,7 +1770,7 @@
         <f t="shared" si="2"/>
         <v>5.3200000000000038</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="18">
         <f t="shared" si="3"/>
         <v>80.971698113207552</v>
       </c>
@@ -1767,25 +1784,25 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="15">
         <v>14</v>
       </c>
       <c r="B7" s="7">
         <v>85</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="10">
         <f>A7-$K$2</f>
         <v>-1.5999999999999996</v>
       </c>
-      <c r="D7" s="1">
-        <f>B7-$K$3</f>
+      <c r="D7" s="10">
+        <f>POWER(C7, 2)</f>
+        <v>2.5599999999999987</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>5.2999999999999972</v>
       </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>2.5599999999999987</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f t="shared" si="1"/>
         <v>28.089999999999971</v>
       </c>
@@ -1793,7 +1810,7 @@
         <f t="shared" si="2"/>
         <v>-8.4799999999999933</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="18">
         <f t="shared" si="3"/>
         <v>74.613207547169822</v>
       </c>
@@ -1801,25 +1818,25 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="15">
         <v>16</v>
       </c>
       <c r="B8" s="7">
         <v>66</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <f>A8-$K$2</f>
         <v>0.40000000000000036</v>
       </c>
-      <c r="D8" s="1">
-        <f>B8-$K$3</f>
+      <c r="D8" s="10">
+        <f>POWER(C8, 2)</f>
+        <v>0.16000000000000028</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>-13.700000000000003</v>
       </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000028</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
         <v>187.69000000000008</v>
       </c>
@@ -1827,7 +1844,7 @@
         <f t="shared" si="2"/>
         <v>-5.4800000000000058</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="18">
         <f t="shared" si="3"/>
         <v>80.971698113207552</v>
       </c>
@@ -1841,25 +1858,25 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="15">
         <v>16</v>
       </c>
       <c r="B9" s="7">
         <v>79</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="10">
         <f>A9-$K$2</f>
         <v>0.40000000000000036</v>
       </c>
-      <c r="D9" s="1">
-        <f>B9-$K$3</f>
+      <c r="D9" s="10">
+        <f>POWER(C9, 2)</f>
+        <v>0.16000000000000028</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>-0.70000000000000284</v>
       </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000028</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>0.49000000000000399</v>
       </c>
@@ -1867,7 +1884,7 @@
         <f t="shared" si="2"/>
         <v>-0.28000000000000136</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="18">
         <f t="shared" si="3"/>
         <v>80.971698113207552</v>
       </c>
@@ -1881,25 +1898,25 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="15">
         <v>18</v>
       </c>
       <c r="B10" s="7">
         <v>77</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <f>A10-$K$2</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="D10" s="1">
-        <f>B10-$K$3</f>
+      <c r="D10" s="10">
+        <f>POWER(C10, 2)</f>
+        <v>5.7600000000000016</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
         <v>-2.7000000000000028</v>
       </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>5.7600000000000016</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>7.2900000000000151</v>
       </c>
@@ -1907,7 +1924,7 @@
         <f t="shared" si="2"/>
         <v>-6.4800000000000075</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="18">
         <f t="shared" si="3"/>
         <v>87.330188679245282</v>
       </c>
@@ -1921,10 +1938,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="16">
         <v>19</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>91</v>
       </c>
       <c r="C11" s="11">
@@ -1932,22 +1949,22 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="D11" s="11">
-        <f>B11-$K$3</f>
+        <f>POWER(C11, 2)</f>
+        <v>11.560000000000002</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
         <v>11.299999999999997</v>
       </c>
-      <c r="E11" s="14">
-        <f t="shared" si="0"/>
-        <v>11.560000000000002</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <f t="shared" si="1"/>
         <v>127.68999999999994</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>38.419999999999995</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="19">
         <f t="shared" si="3"/>
         <v>90.509433962264154</v>
       </c>

--- a/programs/frameworks/neural/data/lr.xlsx
+++ b/programs/frameworks/neural/data/lr.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302864F1-C058-4F06-B41D-34405E4D68D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EBEFF2-3EFE-4133-80AA-4FD0EF267B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9564" yWindow="1596" windowWidth="20616" windowHeight="14472" xr2:uid="{FB11F44C-8569-4840-B176-A127A7EB8F39}"/>
+    <workbookView xWindow="492" yWindow="1776" windowWidth="20592" windowHeight="12144" xr2:uid="{FB11F44C-8569-4840-B176-A127A7EB8F39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Foo (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="Foo" sheetId="4" r:id="rId2"/>
+    <sheet name="Model" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>y-inter</t>
   </si>
@@ -90,6 +92,57 @@
   </si>
   <si>
     <t>((x - sum_x)^2)*((y - sum_y)^2)</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x1^2</t>
+  </si>
+  <si>
+    <t>sum(x1^2)</t>
+  </si>
+  <si>
+    <t>sum(x2^2)</t>
+  </si>
+  <si>
+    <t>sum(x1*y)</t>
+  </si>
+  <si>
+    <t>sum(x2*y)</t>
+  </si>
+  <si>
+    <t>sum(x1*x2)</t>
+  </si>
+  <si>
+    <t>x2^2</t>
+  </si>
+  <si>
+    <t>sum_x1</t>
+  </si>
+  <si>
+    <t>sum_x2</t>
+  </si>
+  <si>
+    <t>sum(Y)</t>
+  </si>
+  <si>
+    <t>sum(x1)</t>
+  </si>
+  <si>
+    <t>sum(x2)</t>
+  </si>
+  <si>
+    <t>x1*y</t>
+  </si>
+  <si>
+    <t>x2*y</t>
+  </si>
+  <si>
+    <t>x1*x2</t>
   </si>
 </sst>
 </file>
@@ -1534,11 +1587,627 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835CC45-FC63-4D65-AEFC-3200A19C69ED}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>B2*B2</f>
+        <v>3249</v>
+      </c>
+      <c r="E2">
+        <f>C2*C2</f>
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <f>B2*A2</f>
+        <v>3648</v>
+      </c>
+      <c r="G2">
+        <f>C2*A2</f>
+        <v>512</v>
+      </c>
+      <c r="H2">
+        <f>B2*C2</f>
+        <v>456</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM(A2:A9)</f>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="0">B3*B3</f>
+        <v>3481</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">C3*C3</f>
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="2">B3*A3</f>
+        <v>4189</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="3">C3*A3</f>
+        <v>710</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="4">B3*C3</f>
+        <v>590</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUM(B2:B9)</f>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2597</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>318</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM(C2:C9)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3844</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>4154</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>737</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>682</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM(D2:D9)</f>
+        <v>23405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2601</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2805</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>408</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUM(E2:E9)</f>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM(F2:F9)</f>
+        <v>27264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>4235</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUM(G2:G9)</f>
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>2736</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>513</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>432</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM(H2:H9)</f>
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="4">
+        <f>K5-(POWER(K3,2)/ROWS(B2:B9))</f>
+        <v>184.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="4">
+        <f>K6-(POWER(K4,2)/ROWS(C2:C9))</f>
+        <v>19.875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0347DA7E-9BE5-40DF-A8FA-18119357C742}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="17" max="18" width="12.44140625" customWidth="1"/>
+    <col min="19" max="19" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1"/>
+    <col min="22" max="22" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>31615</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1">
+        <f>AVERAGE(A2:A16)</f>
+        <v>28158.733333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>29020</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1">
+        <f>AVERAGE(B2:B16)</f>
+        <v>29.866666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>23773</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1">
+        <f>AVERAGE(C2:C16)</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>29228</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>24934</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>25448</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>26483</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>29504</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>29430</v>
+      </c>
+      <c r="B10">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>28615</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>34537</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>26193</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20034</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>31424</v>
+      </c>
+      <c r="B15">
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>32143</v>
+      </c>
+      <c r="B16">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECFAC71-496C-4039-BF62-D54991C20F2C}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/programs/frameworks/neural/data/lr.xlsx
+++ b/programs/frameworks/neural/data/lr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EBEFF2-3EFE-4133-80AA-4FD0EF267B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6518550A-BD8E-4D11-B3E0-BB368BCCEF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="492" yWindow="1776" windowWidth="20592" windowHeight="12144" xr2:uid="{FB11F44C-8569-4840-B176-A127A7EB8F39}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>y-inter</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>x1*x2</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b2</t>
   </si>
 </sst>
 </file>
@@ -1588,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835CC45-FC63-4D65-AEFC-3200A19C69ED}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,8 +1611,10 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1628,6 +1642,13 @@
       <c r="H1" t="s">
         <v>34</v>
       </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4">
+        <f>ROWS(B2:B9)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -1941,7 +1962,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="4">
-        <f>K5-(POWER(K3,2)/ROWS(B2:B9))</f>
+        <f>K5-(POWER(K3,2)/$K$1)</f>
         <v>184.875</v>
       </c>
     </row>
@@ -1950,8 +1971,68 @@
         <v>22</v>
       </c>
       <c r="K12" s="4">
-        <f>K6-(POWER(K4,2)/ROWS(C2:C9))</f>
+        <f>K6-(POWER(K4,2)/$K$1)</f>
         <v>19.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="4">
+        <f>K7-(K3*$K$2)/$K$1</f>
+        <v>218.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="4">
+        <f>K8-(K4*$K$2)/$K$1</f>
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="4">
+        <f>K9-(K3*K4)/$K$1</f>
+        <v>44.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="4">
+        <f>((K12*K13)-(K15*K14))/((K11*K12)-POWER(K15,2))</f>
+        <v>0.56149732620320858</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="4">
+        <f>((K11*K14)-(K15*K13))/((K11*K12)-POWER(K15,2))</f>
+        <v>2.5757575757575757</v>
+      </c>
+    </row>
+    <row r="19" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="4">
+        <f>K2/K1-K17*(K3/$K$1)-K18*(K4/$K$1)</f>
+        <v>10.28342245989305</v>
       </c>
     </row>
   </sheetData>

--- a/programs/frameworks/neural/data/lr.xlsx
+++ b/programs/frameworks/neural/data/lr.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6518550A-BD8E-4D11-B3E0-BB368BCCEF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B425243-2D64-4E44-914C-3F547853F059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="492" yWindow="1776" windowWidth="20592" windowHeight="12144" xr2:uid="{FB11F44C-8569-4840-B176-A127A7EB8F39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foo (2)" sheetId="6" r:id="rId1"/>
-    <sheet name="Foo" sheetId="4" r:id="rId2"/>
-    <sheet name="Model" sheetId="1" r:id="rId3"/>
+    <sheet name="Bar" sheetId="8" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId5"/>
+    <sheet name="Foo" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>y-inter</t>
   </si>
@@ -121,10 +124,7 @@
     <t>x2^2</t>
   </si>
   <si>
-    <t>sum_x1</t>
-  </si>
-  <si>
-    <t>sum_x2</t>
+    <t>r^2</t>
   </si>
   <si>
     <t>sum(Y)</t>
@@ -155,14 +155,21 @@
   </si>
   <si>
     <t>b2</t>
+  </si>
+  <si>
+    <t>(y-x1)^2</t>
+  </si>
+  <si>
+    <t>(y-x2)^2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -231,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -252,6 +259,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1599,25 +1614,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835CC45-FC63-4D65-AEFC-3200A19C69ED}">
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1284AD-F7D8-455D-A2DE-762BF4B0EE5E}">
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K5" sqref="K5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.5546875" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1634,23 +1651,29 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4">
+      <c r="N1" s="20">
         <f>ROWS(B2:B9)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>64</v>
       </c>
@@ -1669,26 +1692,38 @@
         <v>64</v>
       </c>
       <c r="F2">
+        <f>POWER($N$17-B2, 2)</f>
+        <v>3249</v>
+      </c>
+      <c r="G2">
         <f>B2*A2</f>
         <v>3648</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>C2*A2</f>
         <v>512</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>B2*C2</f>
         <v>456</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="J2">
+        <f>POWER($N$17-C2, 2)</f>
+        <v>64</v>
+      </c>
+      <c r="K2">
+        <f>F2*J2</f>
+        <v>207936</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="21">
         <f>SUM(A2:A9)</f>
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>71</v>
       </c>
@@ -1699,34 +1734,46 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">B3*B3</f>
+        <f t="shared" ref="D3:E9" si="0">B3*B3</f>
         <v>3481</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3*C3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">B3*A3</f>
+        <f t="shared" ref="F3:F9" si="1">POWER($N$17-B3, 2)</f>
+        <v>3481</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="2">B3*A3</f>
         <v>4189</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="3">C3*A3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="3">C3*A3</f>
         <v>710</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H9" si="4">B3*C3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="4">B3*C3</f>
         <v>590</v>
       </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="5">POWER($N$17-C3, 2)</f>
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="6">F3*J3</f>
+        <v>348100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="21">
         <f>SUM(B2:B9)</f>
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>53</v>
       </c>
@@ -1741,30 +1788,42 @@
         <v>2401</v>
       </c>
       <c r="E4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="F4">
+        <v>2401</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="2"/>
         <v>2597</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>86436</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="21">
         <f>SUM(C2:C9)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>67</v>
       </c>
@@ -1779,30 +1838,42 @@
         <v>3844</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="F5">
+        <v>3844</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="2"/>
         <v>4154</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="3"/>
         <v>737</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="4"/>
         <v>682</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>465124</v>
+      </c>
+      <c r="M5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="4">
+      <c r="N5" s="21">
         <f>SUM(D2:D9)</f>
         <v>23405</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>55</v>
       </c>
@@ -1817,30 +1888,42 @@
         <v>2601</v>
       </c>
       <c r="E6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="F6">
+        <v>2601</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="2"/>
         <v>2805</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>166464</v>
+      </c>
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="4">
+      <c r="N6" s="21">
         <f>SUM(E2:E9)</f>
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>58</v>
       </c>
@@ -1855,30 +1938,42 @@
         <v>2500</v>
       </c>
       <c r="E7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="F7">
+        <v>2500</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="2"/>
         <v>2900</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="3"/>
         <v>406</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>122500</v>
+      </c>
+      <c r="M7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="4">
-        <f>SUM(F2:F9)</f>
+      <c r="N7" s="21">
+        <f>SUM(G2:G9)</f>
         <v>27264</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>77</v>
       </c>
@@ -1893,30 +1988,42 @@
         <v>3025</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F8">
+        <v>3025</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="2"/>
         <v>4235</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="3"/>
         <v>770</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="4"/>
         <v>550</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>302500</v>
+      </c>
+      <c r="M8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="4">
-        <f>SUM(G2:G9)</f>
+      <c r="N8" s="21">
+        <f>SUM(H2:H9)</f>
         <v>4406</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>57</v>
       </c>
@@ -1931,108 +2038,154 @@
         <v>2304</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="F9">
+        <v>2304</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>2736</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="3"/>
         <v>513</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="4"/>
         <v>432</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>186624</v>
+      </c>
+      <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="4">
-        <f>SUM(H2:H9)</f>
+      <c r="N9" s="21">
+        <f>SUM(I2:I9)</f>
         <v>3762</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J11" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="4">
-        <f>K5-(POWER(K3,2)/$K$1)</f>
+      <c r="N11" s="4">
+        <f>N5-(POWER(N3,2)/$N$1)</f>
         <v>184.875</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J12" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="4">
-        <f>K6-(POWER(K4,2)/$K$1)</f>
+      <c r="N12" s="4">
+        <f>N6-(POWER(N4,2)/$N$1)</f>
         <v>19.875</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J13" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="4">
-        <f>K7-(K3*$K$2)/$K$1</f>
+      <c r="N13" s="4">
+        <f>N7-(N3*$N$2)/$N$1</f>
         <v>218.75</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J14" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="4">
-        <f>K8-(K4*$K$2)/$K$1</f>
+      <c r="N14" s="4">
+        <f>N8-(N4*$N$2)/$N$1</f>
         <v>76.25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J15" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="4">
-        <f>K9-(K3*K4)/$K$1</f>
+      <c r="N15" s="4">
+        <f>N9-(N3*N4)/$N$1</f>
         <v>44.625</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="4">
-        <f>((K12*K13)-(K15*K14))/((K11*K12)-POWER(K15,2))</f>
-        <v>0.56149732620320858</v>
-      </c>
-      <c r="M17" s="4"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="4">
-        <f>((K11*K14)-(K15*K13))/((K11*K12)-POWER(K15,2))</f>
-        <v>2.5757575757575757</v>
-      </c>
-    </row>
-    <row r="19" spans="10:15" x14ac:dyDescent="0.3">
-      <c r="J19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="4">
-        <f>K2/K1-K17*(K3/$K$1)-K18*(K4/$K$1)</f>
-        <v>10.28342245989305</v>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2041,254 +2194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0347DA7E-9BE5-40DF-A8FA-18119357C742}">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
-    <col min="17" max="18" width="12.44140625" customWidth="1"/>
-    <col min="19" max="19" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" customWidth="1"/>
-    <col min="22" max="22" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>31615</v>
-      </c>
-      <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1">
-        <f>AVERAGE(A2:A16)</f>
-        <v>28158.733333333334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>29020</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1">
-        <f>AVERAGE(B2:B16)</f>
-        <v>29.866666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>23773</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="1">
-        <f>AVERAGE(C2:C16)</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>29228</v>
-      </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>24934</v>
-      </c>
-      <c r="B6">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>25448</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>26483</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>29504</v>
-      </c>
-      <c r="B9">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>29430</v>
-      </c>
-      <c r="B10">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>28615</v>
-      </c>
-      <c r="B11">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>34537</v>
-      </c>
-      <c r="B12">
-        <v>37</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>26193</v>
-      </c>
-      <c r="B13">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>20034</v>
-      </c>
-      <c r="B14">
-        <v>46</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>31424</v>
-      </c>
-      <c r="B15">
-        <v>49</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>32143</v>
-      </c>
-      <c r="B16">
-        <v>53</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECFAC71-496C-4039-BF62-D54991C20F2C}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2740,4 +2650,642 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE73F54-119E-451F-887E-0B795069A31F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDB0296-53BA-44C6-9317-48D120B21EA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACE69D6-AA28-4415-848D-FDEC8D3260D2}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="22">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22">
+        <v>13</v>
+      </c>
+      <c r="C1" s="22">
+        <v>12</v>
+      </c>
+      <c r="D1" s="22">
+        <v>15</v>
+      </c>
+      <c r="E1" s="22">
+        <v>16</v>
+      </c>
+      <c r="F1" s="22">
+        <v>14</v>
+      </c>
+      <c r="G1" s="22">
+        <v>16</v>
+      </c>
+      <c r="H1" s="22">
+        <v>16</v>
+      </c>
+      <c r="I1" s="22">
+        <v>18</v>
+      </c>
+      <c r="J1" s="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>94</v>
+      </c>
+      <c r="B2" s="24">
+        <v>73</v>
+      </c>
+      <c r="C2" s="24">
+        <v>59</v>
+      </c>
+      <c r="D2" s="24">
+        <v>80</v>
+      </c>
+      <c r="E2" s="24">
+        <v>93</v>
+      </c>
+      <c r="F2" s="24">
+        <v>85</v>
+      </c>
+      <c r="G2" s="24">
+        <v>66</v>
+      </c>
+      <c r="H2" s="24">
+        <v>79</v>
+      </c>
+      <c r="I2" s="24">
+        <v>77</v>
+      </c>
+      <c r="J2" s="25">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835CC45-FC63-4D65-AEFC-3200A19C69ED}">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="20">
+        <f>ROWS(B2:B9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>B2*B2</f>
+        <v>3249</v>
+      </c>
+      <c r="E2">
+        <f>C2*C2</f>
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <f>B2*A2</f>
+        <v>3648</v>
+      </c>
+      <c r="G2">
+        <f>C2*A2</f>
+        <v>512</v>
+      </c>
+      <c r="H2">
+        <f>B2*C2</f>
+        <v>456</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="21">
+        <f>SUM(A2:A9)</f>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="0">B3*B3</f>
+        <v>3481</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">C3*C3</f>
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="2">B3*A3</f>
+        <v>4189</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="3">C3*A3</f>
+        <v>710</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="4">B3*C3</f>
+        <v>590</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="21">
+        <f>SUM(B2:B9)</f>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2597</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>318</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="21">
+        <f>SUM(C2:C9)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3844</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>4154</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>737</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>682</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="21">
+        <f>SUM(D2:D9)</f>
+        <v>23405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2601</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2805</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>408</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="21">
+        <f>SUM(E2:E9)</f>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="21">
+        <f>SUM(F2:F9)</f>
+        <v>27264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>4235</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="21">
+        <f>SUM(G2:G9)</f>
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>2736</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>513</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>432</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="21">
+        <f>SUM(H2:H9)</f>
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="4">
+        <f>K5-(POWER(K3,2)/$K$1)</f>
+        <v>184.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="4">
+        <f>K6-(POWER(K4,2)/$K$1)</f>
+        <v>19.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="4">
+        <f>K7-(K3*$K$2)/$K$1</f>
+        <v>218.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="4">
+        <f>K8-(K4*$K$2)/$K$1</f>
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="4">
+        <f>K9-(K3*K4)/$K$1</f>
+        <v>44.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="4">
+        <f>((K12*K13)-(K15*K14))/((K11*K12)-POWER(K15,2))</f>
+        <v>0.56149732620320858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="4">
+        <f>((K11*K14)-(K15*K13))/((K11*K12)-POWER(K15,2))</f>
+        <v>2.5757575757575757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="4">
+        <f>K2/K1-K18*(K3/$K$1)-K19*(K4/$K$1)</f>
+        <v>10.28342245989305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>48</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/programs/frameworks/neural/data/lr.xlsx
+++ b/programs/frameworks/neural/data/lr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B425243-2D64-4E44-914C-3F547853F059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721170E-4123-477A-8EBB-39CBD03FCC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="1776" windowWidth="20592" windowHeight="12144" xr2:uid="{FB11F44C-8569-4840-B176-A127A7EB8F39}"/>
+    <workbookView xWindow="492" yWindow="1776" windowWidth="20592" windowHeight="12144" activeTab="1" xr2:uid="{FB11F44C-8569-4840-B176-A127A7EB8F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>y-inter</t>
   </si>
@@ -157,10 +157,16 @@
     <t>b2</t>
   </si>
   <si>
+    <t>y-x1</t>
+  </si>
+  <si>
     <t>(y-x1)^2</t>
   </si>
   <si>
     <t>(y-x2)^2</t>
+  </si>
+  <si>
+    <t>(y-x1)^2*(y-x2)^2*</t>
   </si>
 </sst>
 </file>
@@ -1615,26 +1621,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1284AD-F7D8-455D-A2DE-762BF4B0EE5E}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.5546875" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1644,36 +1652,42 @@
       <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
       <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="20">
+      <c r="Q1" s="20">
         <f>ROWS(B2:B9)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>64</v>
       </c>
@@ -1684,46 +1698,54 @@
         <v>8</v>
       </c>
       <c r="D2">
+        <f>$A$10-A2</f>
+        <v>-1.25</v>
+      </c>
+      <c r="E2">
         <f>B2*B2</f>
         <v>3249</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>C2*C2</f>
         <v>64</v>
       </c>
-      <c r="F2">
-        <f>POWER($N$17-B2, 2)</f>
+      <c r="G2" s="4">
+        <f>$B$10-B2</f>
+        <v>-3.125</v>
+      </c>
+      <c r="H2">
+        <f>POWER($Q$17-B2, 2)</f>
         <v>3249</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <f>B2*A2</f>
         <v>3648</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <f>C2*A2</f>
         <v>512</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <f>B2*C2</f>
         <v>456</v>
       </c>
-      <c r="J2">
-        <f>POWER($N$17-C2, 2)</f>
+      <c r="M2">
+        <f>POWER($Q$17-C2, 2)</f>
         <v>64</v>
       </c>
-      <c r="K2">
-        <f>F2*J2</f>
+      <c r="N2">
+        <f>H2*M2</f>
         <v>207936</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="21">
+      <c r="Q2" s="21">
         <f>SUM(A2:A9)</f>
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>71</v>
       </c>
@@ -1734,46 +1756,54 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:E9" si="0">B3*B3</f>
+        <f t="shared" ref="D3:D9" si="0">$A$10-A3</f>
+        <v>-8.25</v>
+      </c>
+      <c r="E3">
+        <f>B3*B3</f>
         <v>3481</v>
       </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
+      <c r="F3">
+        <f>C3*C3</f>
         <v>100</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="1">POWER($N$17-B3, 2)</f>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G9" si="1">$B$10-B3</f>
+        <v>-5.125</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="2">POWER($Q$17-B3, 2)</f>
         <v>3481</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="2">B3*A3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="3">B3*A3</f>
         <v>4189</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H9" si="3">C3*A3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="4">C3*A3</f>
         <v>710</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I9" si="4">B3*C3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="5">B3*C3</f>
         <v>590</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J9" si="5">POWER($N$17-C3, 2)</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="6">POWER($Q$17-C3, 2)</f>
         <v>100</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K9" si="6">F3*J3</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N9" si="7">H3*M3</f>
         <v>348100</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="21">
+      <c r="Q3" s="21">
         <f>SUM(B2:B9)</f>
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>53</v>
       </c>
@@ -1785,45 +1815,53 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="E4">
+        <f>B4*B4</f>
         <v>2401</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
+      <c r="F4">
+        <f>C4*C4</f>
         <v>36</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
+        <v>4.875</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
         <v>2401</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
+      <c r="I4">
+        <f t="shared" si="3"/>
         <v>2597</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
+      <c r="J4">
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
+      <c r="K4">
+        <f t="shared" si="5"/>
         <v>294</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="5"/>
+      <c r="M4">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="6"/>
+      <c r="N4">
+        <f t="shared" si="7"/>
         <v>86436</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="21">
+      <c r="Q4" s="21">
         <f>SUM(C2:C9)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>67</v>
       </c>
@@ -1835,45 +1873,53 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
+        <v>-4.25</v>
+      </c>
+      <c r="E5">
+        <f>B5*B5</f>
         <v>3844</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="F5">
+        <f>C5*C5</f>
         <v>121</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
+        <v>-8.125</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
         <v>3844</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
+      <c r="I5">
+        <f t="shared" si="3"/>
         <v>4154</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
+      <c r="J5">
+        <f t="shared" si="4"/>
         <v>737</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
+      <c r="K5">
+        <f t="shared" si="5"/>
         <v>682</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
+      <c r="M5">
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="6"/>
+      <c r="N5">
+        <f t="shared" si="7"/>
         <v>465124</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="21">
-        <f>SUM(D2:D9)</f>
+      <c r="Q5" s="21">
+        <f>SUM(E2:E9)</f>
         <v>23405</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>55</v>
       </c>
@@ -1885,45 +1931,53 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="E6">
+        <f>B6*B6</f>
         <v>2601</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="F6">
+        <f>C6*C6</f>
         <v>64</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
+        <v>2.875</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
         <v>2601</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
+      <c r="I6">
+        <f t="shared" si="3"/>
         <v>2805</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
+      <c r="J6">
+        <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
+      <c r="K6">
+        <f t="shared" si="5"/>
         <v>408</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
+      <c r="M6">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="6"/>
+      <c r="N6">
+        <f t="shared" si="7"/>
         <v>166464</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="21">
-        <f>SUM(E2:E9)</f>
+      <c r="Q6" s="21">
+        <f>SUM(F2:F9)</f>
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>58</v>
       </c>
@@ -1935,45 +1989,53 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="E7">
+        <f>B7*B7</f>
         <v>2500</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="F7">
+        <f>C7*C7</f>
         <v>49</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
+        <v>3.875</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
+      <c r="I7">
+        <f t="shared" si="3"/>
         <v>2900</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
+      <c r="J7">
+        <f t="shared" si="4"/>
         <v>406</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
+      <c r="K7">
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
+      <c r="M7">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="6"/>
+      <c r="N7">
+        <f t="shared" si="7"/>
         <v>122500</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="21">
-        <f>SUM(G2:G9)</f>
+      <c r="Q7" s="21">
+        <f>SUM(I2:I9)</f>
         <v>27264</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>77</v>
       </c>
@@ -1985,45 +2047,53 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
+        <v>-14.25</v>
+      </c>
+      <c r="E8">
+        <f>B8*B8</f>
         <v>3025</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
+      <c r="F8">
+        <f>C8*C8</f>
         <v>100</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
+        <v>-1.125</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
         <v>3025</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
+      <c r="I8">
+        <f t="shared" si="3"/>
         <v>4235</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
+      <c r="J8">
+        <f t="shared" si="4"/>
         <v>770</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
+      <c r="K8">
+        <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
+      <c r="M8">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="6"/>
+      <c r="N8">
+        <f t="shared" si="7"/>
         <v>302500</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="21">
-        <f>SUM(H2:H9)</f>
+      <c r="Q8" s="21">
+        <f>SUM(J2:J9)</f>
         <v>4406</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>57</v>
       </c>
@@ -2035,145 +2105,173 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="E9">
+        <f>B9*B9</f>
         <v>2304</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="F9">
+        <f>C9*C9</f>
         <v>81</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
+        <v>5.875</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
         <v>2304</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
+      <c r="I9">
+        <f t="shared" si="3"/>
         <v>2736</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
+      <c r="J9">
+        <f t="shared" si="4"/>
         <v>513</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
+      <c r="K9">
+        <f t="shared" si="5"/>
         <v>432</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
+      <c r="M9">
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="6"/>
+      <c r="N9">
+        <f t="shared" si="7"/>
         <v>186624</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="21">
-        <f>SUM(I2:I9)</f>
+      <c r="Q9" s="21">
+        <f>SUM(K2:K9)</f>
         <v>3762</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M11" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>AVERAGE(A2:A9)</f>
+        <v>62.75</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:D10" si="8">AVERAGE(B2:B9)</f>
+        <v>53.875</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="8"/>
+        <v>8.625</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G2:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="4">
-        <f>N5-(POWER(N3,2)/$N$1)</f>
+      <c r="Q11" s="4">
+        <f>Q5-(POWER(Q3,2)/$Q$1)</f>
         <v>184.875</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M12" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="4">
-        <f>N6-(POWER(N4,2)/$N$1)</f>
+      <c r="Q12" s="4">
+        <f>Q6-(POWER(Q4,2)/$Q$1)</f>
         <v>19.875</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="4">
-        <f>N7-(N3*$N$2)/$N$1</f>
+      <c r="Q13" s="4">
+        <f>Q7-(Q3*$Q$2)/$Q$1</f>
         <v>218.75</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M14" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="4">
-        <f>N8-(N4*$N$2)/$N$1</f>
+      <c r="Q14" s="4">
+        <f>Q8-(Q4*$Q$2)/$Q$1</f>
         <v>76.25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M15" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="4">
-        <f>N9-(N3*N4)/$N$1</f>
+      <c r="Q15" s="4">
+        <f>Q9-(Q3*Q4)/$Q$1</f>
         <v>44.625</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N18" s="4"/>
-      <c r="P18" s="4"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N24" s="4"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>50</v>
       </c>
@@ -2197,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECFAC71-496C-4039-BF62-D54991C20F2C}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/programs/frameworks/neural/data/lr.xlsx
+++ b/programs/frameworks/neural/data/lr.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721170E-4123-477A-8EBB-39CBD03FCC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5159524-B403-4756-806F-08B79AABEC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="1776" windowWidth="20592" windowHeight="12144" activeTab="1" xr2:uid="{FB11F44C-8569-4840-B176-A127A7EB8F39}"/>
+    <workbookView xWindow="6732" yWindow="2976" windowWidth="18816" windowHeight="11292" activeTab="1" xr2:uid="{FB11F44C-8569-4840-B176-A127A7EB8F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar" sheetId="8" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet8" sheetId="11" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="10" r:id="rId5"/>
-    <sheet name="Foo" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>y-inter</t>
   </si>
@@ -124,9 +120,6 @@
     <t>x2^2</t>
   </si>
   <si>
-    <t>r^2</t>
-  </si>
-  <si>
     <t>sum(Y)</t>
   </si>
   <si>
@@ -146,15 +139,6 @@
   </si>
   <si>
     <t>rows</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b0</t>
-  </si>
-  <si>
-    <t>b2</t>
   </si>
   <si>
     <t>y-x1</t>
@@ -175,7 +159,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -244,35 +228,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1659,30 +1631,30 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="20">
+      <c r="Q1" s="12">
         <f>ROWS(B2:B9)</f>
         <v>8</v>
       </c>
@@ -1702,14 +1674,14 @@
         <v>-1.25</v>
       </c>
       <c r="E2">
-        <f>B2*B2</f>
+        <f t="shared" ref="E2:F9" si="0">B2*B2</f>
         <v>3249</v>
       </c>
       <c r="F2">
-        <f>C2*C2</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>$B$10-B2</f>
         <v>-3.125</v>
       </c>
@@ -1738,9 +1710,9 @@
         <v>207936</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="21">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="13">
         <f>SUM(A2:A9)</f>
         <v>502</v>
       </c>
@@ -1756,49 +1728,49 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">$A$10-A3</f>
+        <f t="shared" ref="D3:D9" si="1">$A$10-A3</f>
         <v>-8.25</v>
       </c>
       <c r="E3">
-        <f>B3*B3</f>
+        <f t="shared" si="0"/>
         <v>3481</v>
       </c>
       <c r="F3">
-        <f>C3*C3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G9" si="1">$B$10-B3</f>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G9" si="2">$B$10-B3</f>
         <v>-5.125</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="2">POWER($Q$17-B3, 2)</f>
+        <f t="shared" ref="H3:H9" si="3">POWER($Q$17-B3, 2)</f>
         <v>3481</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I9" si="3">B3*A3</f>
+        <f t="shared" ref="I3:I9" si="4">B3*A3</f>
         <v>4189</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" si="4">C3*A3</f>
+        <f t="shared" ref="J3:J9" si="5">C3*A3</f>
         <v>710</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K9" si="5">B3*C3</f>
+        <f t="shared" ref="K3:K9" si="6">B3*C3</f>
         <v>590</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M9" si="6">POWER($Q$17-C3, 2)</f>
+        <f t="shared" ref="M3:M9" si="7">POWER($Q$17-C3, 2)</f>
         <v>100</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N9" si="7">H3*M3</f>
+        <f t="shared" ref="N3:N9" si="8">H3*M3</f>
         <v>348100</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="21">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="13">
         <f>SUM(B2:B9)</f>
         <v>431</v>
       </c>
@@ -1814,49 +1786,49 @@
         <v>6</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>9.75</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>9.75</v>
-      </c>
-      <c r="E4">
-        <f>B4*B4</f>
         <v>2401</v>
       </c>
       <c r="F4">
-        <f>C4*C4</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G4" s="4">
-        <f t="shared" si="1"/>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
         <v>4.875</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2401</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2597</v>
       </c>
       <c r="J4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>318</v>
       </c>
       <c r="K4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>294</v>
       </c>
       <c r="M4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="N4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>86436</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="21">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="13">
         <f>SUM(C2:C9)</f>
         <v>69</v>
       </c>
@@ -1872,49 +1844,49 @@
         <v>11</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-4.25</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>-4.25</v>
-      </c>
-      <c r="E5">
-        <f>B5*B5</f>
         <v>3844</v>
       </c>
       <c r="F5">
-        <f>C5*C5</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
         <v>-8.125</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3844</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4154</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>737</v>
       </c>
       <c r="K5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>682</v>
       </c>
       <c r="M5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="N5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>465124</v>
       </c>
       <c r="P5" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="13">
         <f>SUM(E2:E9)</f>
         <v>23405</v>
       </c>
@@ -1930,49 +1902,49 @@
         <v>8</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
-      <c r="E6">
-        <f>B6*B6</f>
         <v>2601</v>
       </c>
       <c r="F6">
-        <f>C6*C6</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="1"/>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
         <v>2.875</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2601</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2805</v>
       </c>
       <c r="J6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="K6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>408</v>
       </c>
       <c r="M6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="N6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>166464</v>
       </c>
       <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="13">
         <f>SUM(F2:F9)</f>
         <v>615</v>
       </c>
@@ -1988,49 +1960,49 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-      <c r="E7">
-        <f>B7*B7</f>
         <v>2500</v>
       </c>
       <c r="F7">
-        <f>C7*C7</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
         <v>3.875</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2900</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>406</v>
       </c>
       <c r="K7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="M7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="N7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>122500</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="13">
         <f>SUM(I2:I9)</f>
         <v>27264</v>
       </c>
@@ -2046,49 +2018,49 @@
         <v>10</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-14.25</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>-14.25</v>
-      </c>
-      <c r="E8">
-        <f>B8*B8</f>
         <v>3025</v>
       </c>
       <c r="F8">
-        <f>C8*C8</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="1"/>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
         <v>-1.125</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3025</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4235</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>770</v>
       </c>
       <c r="K8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>550</v>
       </c>
       <c r="M8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="N8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>302500</v>
       </c>
       <c r="P8" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="13">
         <f>SUM(J2:J9)</f>
         <v>4406</v>
       </c>
@@ -2104,49 +2076,49 @@
         <v>9</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>5.75</v>
-      </c>
-      <c r="E9">
-        <f>B9*B9</f>
         <v>2304</v>
       </c>
       <c r="F9">
-        <f>C9*C9</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="G9" s="4">
-        <f t="shared" si="1"/>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
         <v>5.875</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2304</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2736</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>513</v>
       </c>
       <c r="K9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>432</v>
       </c>
       <c r="M9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="N9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>186624</v>
       </c>
       <c r="P9" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="13">
         <f>SUM(K2:K9)</f>
         <v>3762</v>
       </c>
@@ -2157,11 +2129,11 @@
         <v>62.75</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:D10" si="8">AVERAGE(B2:B9)</f>
+        <f t="shared" ref="B10:C10" si="9">AVERAGE(B2:B9)</f>
         <v>53.875</v>
       </c>
       <c r="C10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.625</v>
       </c>
       <c r="D10">
@@ -2172,13 +2144,13 @@
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P11" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <f>Q5-(POWER(Q3,2)/$Q$1)</f>
         <v>184.875</v>
       </c>
@@ -2187,7 +2159,7 @@
       <c r="P12" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <f>Q6-(POWER(Q4,2)/$Q$1)</f>
         <v>19.875</v>
       </c>
@@ -2196,7 +2168,7 @@
       <c r="P13" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <f>Q7-(Q3*$Q$2)/$Q$1</f>
         <v>218.75</v>
       </c>
@@ -2205,7 +2177,7 @@
       <c r="P14" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <f>Q8-(Q4*$Q$2)/$Q$1</f>
         <v>76.25</v>
       </c>
@@ -2214,37 +2186,37 @@
       <c r="P15" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <f>Q9-(Q3*Q4)/$Q$1</f>
         <v>44.625</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q16" s="4"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="Q18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="Q18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="Q19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="Q19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="Q22" s="4"/>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="Q24" s="4"/>
+      <c r="Q24" s="3"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -2314,10 +2286,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2335,32 +2307,31 @@
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="9">
         <v>17</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>94</v>
       </c>
-      <c r="C2" s="10">
-        <f>A2-$K$2</f>
+      <c r="C2" s="6">
+        <f t="shared" ref="C2:C11" si="0">A2-$K$2</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="D2" s="10">
-        <f>POWER(C2, 2)</f>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:D11" si="1">POWER(C2, 2)</f>
         <v>1.9600000000000011</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="7">
         <f>B2-$K$3</f>
         <v>14.299999999999997</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="7">
         <f>POWER(E2, 2)</f>
         <v>204.48999999999992</v>
       </c>
@@ -2368,369 +2339,369 @@
         <f>C2*E2</f>
         <v>20.02</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="11">
         <f>$K$12+$K$11*A2</f>
         <v>84.15094339622641</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <f>AVERAGE(A2:A11)</f>
         <v>15.6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="9">
         <v>13</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>73</v>
       </c>
-      <c r="C3" s="10">
-        <f>A3-$K$2</f>
+      <c r="C3" s="6">
+        <f t="shared" si="0"/>
         <v>-2.5999999999999996</v>
       </c>
-      <c r="D3" s="10">
-        <f>POWER(C3, 2)</f>
+      <c r="D3" s="6">
+        <f t="shared" si="1"/>
         <v>6.759999999999998</v>
       </c>
-      <c r="E3" s="12">
-        <f t="shared" ref="E3:E11" si="0">B3-$K$3</f>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E11" si="2">B3-$K$3</f>
         <v>-6.7000000000000028</v>
       </c>
-      <c r="F3" s="12">
-        <f t="shared" ref="F3:F11" si="1">POWER(E3, 2)</f>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F11" si="3">POWER(E3, 2)</f>
         <v>44.890000000000036</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="2">C3*E3</f>
+        <f t="shared" ref="G3:G11" si="4">C3*E3</f>
         <v>17.420000000000005</v>
       </c>
-      <c r="H3" s="18">
-        <f t="shared" ref="H3:H11" si="3">$K$12+$K$11*A3</f>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H11" si="5">$K$12+$K$11*A3</f>
         <v>71.433962264150949</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <f>AVERAGE(B2:B11)</f>
         <v>79.7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="9">
         <v>12</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>59</v>
       </c>
-      <c r="C4" s="10">
-        <f>A4-$K$2</f>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="D4" s="10">
-        <f>POWER(C4, 2)</f>
+      <c r="D4" s="6">
+        <f t="shared" si="1"/>
         <v>12.959999999999997</v>
       </c>
-      <c r="E4" s="12">
-        <f t="shared" si="0"/>
+      <c r="E4" s="7">
+        <f t="shared" si="2"/>
         <v>-20.700000000000003</v>
       </c>
-      <c r="F4" s="12">
-        <f t="shared" si="1"/>
+      <c r="F4" s="7">
+        <f t="shared" si="3"/>
         <v>428.49000000000012</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>74.52</v>
       </c>
-      <c r="H4" s="18">
-        <f t="shared" si="3"/>
+      <c r="H4" s="11">
+        <f t="shared" si="5"/>
         <v>68.254716981132077</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <f>SUM(D2:D11)</f>
         <v>42.4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="9">
         <v>15</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>80</v>
       </c>
-      <c r="C5" s="10">
-        <f>A5-$K$2</f>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
         <v>-0.59999999999999964</v>
       </c>
-      <c r="D5" s="10">
-        <f>POWER(C5, 2)</f>
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
         <v>0.3599999999999996</v>
       </c>
-      <c r="E5" s="12">
-        <f t="shared" si="0"/>
+      <c r="E5" s="7">
+        <f t="shared" si="2"/>
         <v>0.29999999999999716</v>
       </c>
-      <c r="F5" s="12">
-        <f t="shared" si="1"/>
+      <c r="F5" s="7">
+        <f t="shared" si="3"/>
         <v>8.999999999999829E-2</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.17999999999999819</v>
       </c>
-      <c r="H5" s="18">
-        <f t="shared" si="3"/>
+      <c r="H5" s="11">
+        <f t="shared" si="5"/>
         <v>77.792452830188694</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <f>SUM(F2:F11)</f>
         <v>1206.0999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="9">
         <v>16</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>93</v>
       </c>
-      <c r="C6" s="10">
-        <f>A6-$K$2</f>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="D6" s="10">
-        <f>POWER(C6, 2)</f>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
         <v>0.16000000000000028</v>
       </c>
-      <c r="E6" s="12">
-        <f t="shared" si="0"/>
+      <c r="E6" s="7">
+        <f t="shared" si="2"/>
         <v>13.299999999999997</v>
       </c>
-      <c r="F6" s="12">
-        <f t="shared" si="1"/>
+      <c r="F6" s="7">
+        <f t="shared" si="3"/>
         <v>176.88999999999993</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3200000000000038</v>
       </c>
-      <c r="H6" s="18">
-        <f t="shared" si="3"/>
+      <c r="H6" s="11">
+        <f t="shared" si="5"/>
         <v>80.971698113207552</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <f>SUM(G2:G11)</f>
         <v>134.80000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="9">
         <v>14</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>85</v>
       </c>
-      <c r="C7" s="10">
-        <f>A7-$K$2</f>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
         <v>-1.5999999999999996</v>
       </c>
-      <c r="D7" s="10">
-        <f>POWER(C7, 2)</f>
+      <c r="D7" s="6">
+        <f t="shared" si="1"/>
         <v>2.5599999999999987</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
+        <f t="shared" si="2"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="3"/>
+        <v>28.089999999999971</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="4"/>
+        <v>-8.4799999999999933</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="5"/>
+        <v>74.613207547169822</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <v>66</v>
+      </c>
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>5.2999999999999972</v>
-      </c>
-      <c r="F7" s="12">
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
-        <v>28.089999999999971</v>
-      </c>
-      <c r="G7" s="1">
+        <v>0.16000000000000028</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="2"/>
-        <v>-8.4799999999999933</v>
-      </c>
-      <c r="H7" s="18">
+        <v>-13.700000000000003</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" si="3"/>
-        <v>74.613207547169822</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7">
-        <v>66</v>
-      </c>
-      <c r="C8" s="10">
-        <f>A8-$K$2</f>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="D8" s="10">
-        <f>POWER(C8, 2)</f>
-        <v>0.16000000000000028</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="0"/>
-        <v>-13.700000000000003</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" si="1"/>
         <v>187.69000000000008</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.4800000000000058</v>
       </c>
-      <c r="H8" s="18">
-        <f t="shared" si="3"/>
+      <c r="H8" s="11">
+        <f t="shared" si="5"/>
         <v>80.971698113207552</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f>K6/SQRT(K4*K5)</f>
         <v>0.59609476138946249</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="9">
         <v>16</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>79</v>
       </c>
-      <c r="C9" s="10">
-        <f>A9-$K$2</f>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="D9" s="10">
-        <f>POWER(C9, 2)</f>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
         <v>0.16000000000000028</v>
       </c>
-      <c r="E9" s="12">
-        <f t="shared" si="0"/>
+      <c r="E9" s="7">
+        <f t="shared" si="2"/>
         <v>-0.70000000000000284</v>
       </c>
-      <c r="F9" s="12">
-        <f t="shared" si="1"/>
+      <c r="F9" s="7">
+        <f t="shared" si="3"/>
         <v>0.49000000000000399</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.28000000000000136</v>
       </c>
-      <c r="H9" s="18">
-        <f t="shared" si="3"/>
+      <c r="H9" s="11">
+        <f t="shared" si="5"/>
         <v>80.971698113207552</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f>SQRT(K4/(ROWS(B2:B11) - 1))</f>
         <v>2.1705094128132942</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="9">
         <v>18</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>77</v>
       </c>
-      <c r="C10" s="10">
-        <f>A10-$K$2</f>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="D10" s="10">
-        <f>POWER(C10, 2)</f>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
         <v>5.7600000000000016</v>
       </c>
-      <c r="E10" s="12">
-        <f t="shared" si="0"/>
+      <c r="E10" s="7">
+        <f t="shared" si="2"/>
         <v>-2.7000000000000028</v>
       </c>
-      <c r="F10" s="12">
-        <f t="shared" si="1"/>
+      <c r="F10" s="7">
+        <f t="shared" si="3"/>
         <v>7.2900000000000151</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.4800000000000075</v>
       </c>
-      <c r="H10" s="18">
-        <f t="shared" si="3"/>
+      <c r="H10" s="11">
+        <f t="shared" si="5"/>
         <v>87.330188679245282</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f>SQRT(K5/(ROWS(B2:B11) - 1))</f>
         <v>11.576316819745005</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="9">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>91</v>
       </c>
-      <c r="C11" s="11">
-        <f>A11-$K$2</f>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="D11" s="11">
-        <f>POWER(C11, 2)</f>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
         <v>11.560000000000002</v>
       </c>
-      <c r="E11" s="12">
-        <f t="shared" si="0"/>
+      <c r="E11" s="7">
+        <f t="shared" si="2"/>
         <v>11.299999999999997</v>
       </c>
-      <c r="F11" s="13">
-        <f t="shared" si="1"/>
+      <c r="F11" s="7">
+        <f t="shared" si="3"/>
         <v>127.68999999999994</v>
       </c>
-      <c r="G11" s="9">
-        <f t="shared" si="2"/>
+      <c r="G11" s="1">
+        <f t="shared" si="4"/>
         <v>38.419999999999995</v>
       </c>
-      <c r="H11" s="19">
-        <f t="shared" si="3"/>
+      <c r="H11" s="11">
+        <f t="shared" si="5"/>
         <v>90.509433962264154</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f>K8*K10/K9</f>
         <v>3.1792452830188682</v>
       </c>
@@ -2739,7 +2710,7 @@
       <c r="J12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f>K3-K11*K2</f>
         <v>30.10377358490566</v>
       </c>
@@ -2748,642 +2719,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE73F54-119E-451F-887E-0B795069A31F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDB0296-53BA-44C6-9317-48D120B21EA6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACE69D6-AA28-4415-848D-FDEC8D3260D2}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="A1:J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="22">
-        <v>17</v>
-      </c>
-      <c r="B1" s="22">
-        <v>13</v>
-      </c>
-      <c r="C1" s="22">
-        <v>12</v>
-      </c>
-      <c r="D1" s="22">
-        <v>15</v>
-      </c>
-      <c r="E1" s="22">
-        <v>16</v>
-      </c>
-      <c r="F1" s="22">
-        <v>14</v>
-      </c>
-      <c r="G1" s="22">
-        <v>16</v>
-      </c>
-      <c r="H1" s="22">
-        <v>16</v>
-      </c>
-      <c r="I1" s="22">
-        <v>18</v>
-      </c>
-      <c r="J1" s="23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
-        <v>94</v>
-      </c>
-      <c r="B2" s="24">
-        <v>73</v>
-      </c>
-      <c r="C2" s="24">
-        <v>59</v>
-      </c>
-      <c r="D2" s="24">
-        <v>80</v>
-      </c>
-      <c r="E2" s="24">
-        <v>93</v>
-      </c>
-      <c r="F2" s="24">
-        <v>85</v>
-      </c>
-      <c r="G2" s="24">
-        <v>66</v>
-      </c>
-      <c r="H2" s="24">
-        <v>79</v>
-      </c>
-      <c r="I2" s="24">
-        <v>77</v>
-      </c>
-      <c r="J2" s="25">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835CC45-FC63-4D65-AEFC-3200A19C69ED}">
-  <dimension ref="A1:O32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="20">
-        <f>ROWS(B2:B9)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>57</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <f>B2*B2</f>
-        <v>3249</v>
-      </c>
-      <c r="E2">
-        <f>C2*C2</f>
-        <v>64</v>
-      </c>
-      <c r="F2">
-        <f>B2*A2</f>
-        <v>3648</v>
-      </c>
-      <c r="G2">
-        <f>C2*A2</f>
-        <v>512</v>
-      </c>
-      <c r="H2">
-        <f>B2*C2</f>
-        <v>456</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="21">
-        <f>SUM(A2:A9)</f>
-        <v>502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>71</v>
-      </c>
-      <c r="B3">
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">B3*B3</f>
-        <v>3481</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3*C3</f>
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">B3*A3</f>
-        <v>4189</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="3">C3*A3</f>
-        <v>710</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H9" si="4">B3*C3</f>
-        <v>590</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="21">
-        <f>SUM(B2:B9)</f>
-        <v>431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>53</v>
-      </c>
-      <c r="B4">
-        <v>49</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>2401</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>2597</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="4"/>
-        <v>294</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="21">
-        <f>SUM(C2:C9)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>3844</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>4154</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>737</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="4"/>
-        <v>682</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="21">
-        <f>SUM(D2:D9)</f>
-        <v>23405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>55</v>
-      </c>
-      <c r="B6">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2601</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>2805</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>408</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="21">
-        <f>SUM(E2:E9)</f>
-        <v>615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>58</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>2900</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>406</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="4"/>
-        <v>350</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="21">
-        <f>SUM(F2:F9)</f>
-        <v>27264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>77</v>
-      </c>
-      <c r="B8">
-        <v>55</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>3025</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>4235</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>770</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="4"/>
-        <v>550</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="21">
-        <f>SUM(G2:G9)</f>
-        <v>4406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>57</v>
-      </c>
-      <c r="B9">
-        <v>48</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2304</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>2736</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>513</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>432</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="21">
-        <f>SUM(H2:H9)</f>
-        <v>3762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="4">
-        <f>K5-(POWER(K3,2)/$K$1)</f>
-        <v>184.875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="4">
-        <f>K6-(POWER(K4,2)/$K$1)</f>
-        <v>19.875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="4">
-        <f>K7-(K3*$K$2)/$K$1</f>
-        <v>218.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="4">
-        <f>K8-(K4*$K$2)/$K$1</f>
-        <v>76.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="4">
-        <f>K9-(K3*K4)/$K$1</f>
-        <v>44.625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="4">
-        <f>((K12*K13)-(K15*K14))/((K11*K12)-POWER(K15,2))</f>
-        <v>0.56149732620320858</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="4">
-        <f>((K11*K14)-(K15*K13))/((K11*K12)-POWER(K15,2))</f>
-        <v>2.5757575757575757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="4">
-        <f>K2/K1-K18*(K3/$K$1)-K19*(K4/$K$1)</f>
-        <v>10.28342245989305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>57</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>59</v>
-      </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>49</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>62</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>51</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>50</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>55</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>48</v>
-      </c>
-      <c r="B32">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>